--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
@@ -13,23 +13,23 @@
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="52" r:id="rId1"/>
-    <sheet name="VNSH02" sheetId="51" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="51" r:id="rId2"/>
     <sheet name="TongThang" sheetId="25" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -232,6 +232,48 @@
   </si>
   <si>
     <t>TG102V</t>
+  </si>
+  <si>
+    <t>ID: 202103021007404</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Xác định lỗi</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị treo khởi động</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
   </si>
 </sst>
 </file>
@@ -434,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -637,6 +679,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,32 +718,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,7 +1037,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1003,9 +1051,9 @@
     <col min="7" max="7" width="17" style="10" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="10" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="53" style="10" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="48.5703125" style="20" customWidth="1"/>
     <col min="13" max="13" width="58" style="10" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="10" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="10" customWidth="1"/>
@@ -1021,46 +1069,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1077,7 +1125,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="41"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1088,57 +1136,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1163,22 +1211,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="67" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,19 +1248,35 @@
         <v>62</v>
       </c>
       <c r="H6" s="46"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="I6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>79</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="64"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1232,7 +1296,7 @@
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="61"/>
       <c r="L7" s="61"/>
       <c r="M7" s="62"/>
@@ -1243,7 +1307,7 @@
       <c r="R7" s="63"/>
       <c r="S7" s="64"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1261,7 +1325,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
       <c r="M8" s="62"/>
@@ -1272,7 +1336,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1355,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="59"/>
       <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="61"/>
       <c r="M9" s="62"/>
       <c r="N9" s="60"/>
@@ -1301,7 +1365,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1319,8 +1383,8 @@
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="60"/>
@@ -1330,7 +1394,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1348,7 +1412,7 @@
       <c r="G11" s="48"/>
       <c r="H11" s="56"/>
       <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
@@ -1359,7 +1423,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1377,7 +1441,7 @@
       <c r="G12" s="48"/>
       <c r="H12" s="56"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52"/>
@@ -1388,7 +1452,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1409,7 +1473,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="49"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
@@ -1419,7 +1483,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1438,7 +1502,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="49"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="33"/>
       <c r="N14" s="1"/>
@@ -1448,7 +1512,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1467,7 +1531,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="49"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="51"/>
       <c r="M15" s="33"/>
       <c r="N15" s="1"/>
@@ -1477,7 +1541,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1560,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="49"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="33"/>
       <c r="N16" s="1"/>
@@ -1506,7 +1570,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,8 @@
       <c r="G17" s="31"/>
       <c r="H17" s="1"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="51"/>
       <c r="M17" s="33"/>
       <c r="N17" s="1"/>
@@ -1552,7 +1616,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="49"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="51"/>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
@@ -1578,8 +1642,8 @@
       <c r="G19" s="31"/>
       <c r="H19" s="1"/>
       <c r="I19" s="49"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="52"/>
       <c r="N19" s="50"/>
@@ -1609,8 +1673,8 @@
       <c r="G20" s="31"/>
       <c r="H20" s="1"/>
       <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="52"/>
       <c r="N20" s="50"/>
@@ -1640,8 +1704,8 @@
       <c r="G21" s="31"/>
       <c r="H21" s="1"/>
       <c r="I21" s="49"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
       <c r="N21" s="1"/>
@@ -1656,7 +1720,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="66"/>
     </row>
@@ -1673,7 +1737,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="43"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="1"/>
@@ -1701,8 +1765,8 @@
       <c r="G23" s="31"/>
       <c r="H23" s="3"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="1"/>
@@ -1728,8 +1792,8 @@
       <c r="G24" s="31"/>
       <c r="H24" s="3"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="1"/>
@@ -1755,8 +1819,8 @@
       <c r="G25" s="31"/>
       <c r="H25" s="3"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="1"/>
@@ -1786,8 +1850,8 @@
       <c r="G26" s="31"/>
       <c r="H26" s="3"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="1"/>
@@ -1818,8 +1882,8 @@
       <c r="G27" s="31"/>
       <c r="H27" s="3"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="1"/>
@@ -1851,7 +1915,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="43"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
       <c r="N28" s="1"/>
@@ -1883,7 +1947,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="43"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="1"/>
@@ -1915,7 +1979,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="43"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
       <c r="N30" s="1"/>
@@ -1947,7 +2011,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="43"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
       <c r="N31" s="1"/>
@@ -1976,7 +2040,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="43"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
       <c r="N32" s="1"/>
@@ -2008,7 +2072,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="43"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="1"/>
@@ -2040,7 +2104,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="43"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="1"/>
@@ -2072,7 +2136,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="43"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
       <c r="N35" s="1"/>
@@ -2101,7 +2165,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="43"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="1"/>
@@ -2130,7 +2194,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="43"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="1"/>
@@ -2159,7 +2223,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="43"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="1"/>
@@ -2186,7 +2250,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="43"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="1"/>
@@ -2213,7 +2277,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="43"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
       <c r="N40" s="1"/>
@@ -2245,7 +2309,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="43"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="1"/>
@@ -2277,7 +2341,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="43"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="1"/>
@@ -2304,7 +2368,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="43"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
       <c r="N43" s="1"/>
@@ -2331,7 +2395,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="43"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
       <c r="N44" s="1"/>
@@ -2367,7 +2431,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
       <c r="N45" s="1"/>
@@ -2406,7 +2470,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="43"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
       <c r="N46" s="1"/>
@@ -2445,7 +2509,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="43"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
       <c r="N47" s="1"/>
@@ -2484,7 +2548,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="43"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
       <c r="N48" s="1"/>
@@ -2493,9 +2557,9 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="28">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+      <c r="T48" s="28" t="e">
+        <f>COUNTIF(#REF!,"*GSM*")</f>
+        <v>#REF!</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>57</v>
@@ -2526,7 +2590,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="43"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
       <c r="N49" s="1"/>
@@ -2554,7 +2618,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="43"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33"/>
       <c r="N50" s="1"/>
@@ -2582,7 +2646,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="43"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33"/>
       <c r="N51" s="1"/>
@@ -2610,7 +2674,7 @@
       <c r="H52" s="26"/>
       <c r="I52" s="43"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33"/>
       <c r="N52" s="1"/>
@@ -2638,7 +2702,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="43"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="33"/>
       <c r="N53" s="1"/>
@@ -2666,7 +2730,7 @@
       <c r="H54" s="26"/>
       <c r="I54" s="43"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33"/>
       <c r="N54" s="1"/>
@@ -2694,7 +2758,7 @@
       <c r="H55" s="26"/>
       <c r="I55" s="43"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33"/>
       <c r="N55" s="1"/>
@@ -2722,7 +2786,7 @@
       <c r="H56" s="26"/>
       <c r="I56" s="43"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33"/>
       <c r="N56" s="1"/>
@@ -2748,7 +2812,7 @@
       <c r="H57" s="26"/>
       <c r="I57" s="43"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33"/>
       <c r="N57" s="1"/>
@@ -2774,7 +2838,7 @@
       <c r="H58" s="26"/>
       <c r="I58" s="43"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
       <c r="N58" s="1"/>
@@ -2797,7 +2861,7 @@
       <c r="H59" s="26"/>
       <c r="I59" s="43"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
+      <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
       <c r="N59" s="1"/>
@@ -2820,7 +2884,7 @@
       <c r="H60" s="26"/>
       <c r="I60" s="43"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
       <c r="N60" s="1"/>
@@ -2843,10 +2907,10 @@
       <c r="H61" s="26"/>
       <c r="I61" s="44"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="33" t="s">
+      <c r="K61" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L61" s="33"/>
       <c r="M61" s="26"/>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
@@ -2868,10 +2932,10 @@
       <c r="H62" s="26"/>
       <c r="I62" s="44"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="33" t="s">
+      <c r="K62" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L62" s="33"/>
       <c r="M62" s="26"/>
       <c r="N62" s="26"/>
       <c r="O62" s="26"/>
@@ -2893,10 +2957,10 @@
       <c r="H63" s="26"/>
       <c r="I63" s="44"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="33" t="s">
+      <c r="K63" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L63" s="33"/>
       <c r="M63" s="26"/>
       <c r="N63" s="26"/>
       <c r="O63" s="26"/>
@@ -2918,10 +2982,10 @@
       <c r="H64" s="26"/>
       <c r="I64" s="44"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="33" t="s">
+      <c r="K64" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L64" s="33"/>
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
       <c r="O64" s="26"/>
@@ -2943,10 +3007,10 @@
       <c r="H65" s="26"/>
       <c r="I65" s="44"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="33" t="s">
+      <c r="K65" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L65" s="33"/>
       <c r="M65" s="26"/>
       <c r="N65" s="26"/>
       <c r="O65" s="26"/>
@@ -3220,11 +3284,11 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3236,7 +3300,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3250,9 +3314,9 @@
     <col min="7" max="7" width="17" style="10" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="10" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="53" style="10" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="56.5703125" style="20" customWidth="1"/>
     <col min="13" max="13" width="58" style="10" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="10" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="10" customWidth="1"/>
@@ -3268,46 +3332,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -3324,7 +3388,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="41"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -3335,57 +3399,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3410,22 +3474,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3448,20 +3512,38 @@
       <c r="G6" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="H6" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="64"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3476,7 +3558,9 @@
       <c r="B7" s="58">
         <v>45019</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="58">
+        <v>45020</v>
+      </c>
       <c r="D7" s="46" t="s">
         <v>44</v>
       </c>
@@ -3490,19 +3574,35 @@
         <v>62</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
+      <c r="I7" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="L7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="63"/>
+      <c r="O7" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="64"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3520,7 +3620,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
       <c r="M8" s="62"/>
@@ -3531,7 +3631,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +3650,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="59"/>
       <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="61"/>
       <c r="M9" s="62"/>
       <c r="N9" s="60"/>
@@ -3560,7 +3660,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3578,8 +3678,8 @@
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="60"/>
@@ -3589,7 +3689,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3607,7 +3707,7 @@
       <c r="G11" s="48"/>
       <c r="H11" s="56"/>
       <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
@@ -3618,7 +3718,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3636,7 +3736,7 @@
       <c r="G12" s="48"/>
       <c r="H12" s="56"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52"/>
@@ -3647,7 +3747,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3668,7 +3768,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="49"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
@@ -3678,7 +3778,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3697,7 +3797,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="49"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="33"/>
       <c r="N14" s="1"/>
@@ -3707,7 +3807,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3726,7 +3826,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="49"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="51"/>
       <c r="M15" s="33"/>
       <c r="N15" s="1"/>
@@ -3736,7 +3836,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3755,7 +3855,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="49"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="33"/>
       <c r="N16" s="1"/>
@@ -3765,7 +3865,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3783,8 +3883,8 @@
       <c r="G17" s="31"/>
       <c r="H17" s="1"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="51"/>
       <c r="M17" s="33"/>
       <c r="N17" s="1"/>
@@ -3811,7 +3911,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="49"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="51"/>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
@@ -3837,8 +3937,8 @@
       <c r="G19" s="31"/>
       <c r="H19" s="1"/>
       <c r="I19" s="49"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="52"/>
       <c r="N19" s="50"/>
@@ -3868,8 +3968,8 @@
       <c r="G20" s="31"/>
       <c r="H20" s="1"/>
       <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="52"/>
       <c r="N20" s="50"/>
@@ -3899,8 +3999,8 @@
       <c r="G21" s="31"/>
       <c r="H21" s="1"/>
       <c r="I21" s="49"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
       <c r="N21" s="1"/>
@@ -3932,7 +4032,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="43"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="1"/>
@@ -3960,8 +4060,8 @@
       <c r="G23" s="31"/>
       <c r="H23" s="3"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="1"/>
@@ -3987,8 +4087,8 @@
       <c r="G24" s="31"/>
       <c r="H24" s="3"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="1"/>
@@ -4014,8 +4114,8 @@
       <c r="G25" s="31"/>
       <c r="H25" s="3"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="1"/>
@@ -4045,8 +4145,8 @@
       <c r="G26" s="31"/>
       <c r="H26" s="3"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="1"/>
@@ -4077,8 +4177,8 @@
       <c r="G27" s="31"/>
       <c r="H27" s="3"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="1"/>
@@ -4110,7 +4210,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="43"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
       <c r="N28" s="1"/>
@@ -4142,7 +4242,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="43"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="1"/>
@@ -4174,7 +4274,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="43"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
       <c r="N30" s="1"/>
@@ -4206,7 +4306,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="43"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
       <c r="N31" s="1"/>
@@ -4235,7 +4335,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="43"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
       <c r="N32" s="1"/>
@@ -4267,7 +4367,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="43"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="1"/>
@@ -4299,7 +4399,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="43"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="1"/>
@@ -4331,7 +4431,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="43"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
       <c r="N35" s="1"/>
@@ -4360,7 +4460,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="43"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="1"/>
@@ -4389,7 +4489,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="43"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="1"/>
@@ -4418,7 +4518,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="43"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="1"/>
@@ -4445,7 +4545,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="43"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="1"/>
@@ -4472,7 +4572,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="43"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
       <c r="N40" s="1"/>
@@ -4504,7 +4604,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="43"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="1"/>
@@ -4536,7 +4636,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="43"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="1"/>
@@ -4563,7 +4663,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="43"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
       <c r="N43" s="1"/>
@@ -4590,7 +4690,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="43"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
       <c r="N44" s="1"/>
@@ -4626,7 +4726,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
       <c r="N45" s="1"/>
@@ -4665,7 +4765,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="43"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
       <c r="N46" s="1"/>
@@ -4704,7 +4804,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="43"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
       <c r="N47" s="1"/>
@@ -4743,7 +4843,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="43"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
       <c r="N48" s="1"/>
@@ -4752,9 +4852,9 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="28">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+      <c r="T48" s="28" t="e">
+        <f>COUNTIF(#REF!,"*GSM*")</f>
+        <v>#REF!</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>57</v>
@@ -4785,7 +4885,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="43"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
       <c r="N49" s="1"/>
@@ -4813,7 +4913,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="43"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33"/>
       <c r="N50" s="1"/>
@@ -4841,7 +4941,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="43"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33"/>
       <c r="N51" s="1"/>
@@ -4869,7 +4969,7 @@
       <c r="H52" s="26"/>
       <c r="I52" s="43"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33"/>
       <c r="N52" s="1"/>
@@ -4897,7 +4997,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="43"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="33"/>
       <c r="N53" s="1"/>
@@ -4925,7 +5025,7 @@
       <c r="H54" s="26"/>
       <c r="I54" s="43"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33"/>
       <c r="N54" s="1"/>
@@ -4953,7 +5053,7 @@
       <c r="H55" s="26"/>
       <c r="I55" s="43"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33"/>
       <c r="N55" s="1"/>
@@ -4981,7 +5081,7 @@
       <c r="H56" s="26"/>
       <c r="I56" s="43"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33"/>
       <c r="N56" s="1"/>
@@ -5007,7 +5107,7 @@
       <c r="H57" s="26"/>
       <c r="I57" s="43"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33"/>
       <c r="N57" s="1"/>
@@ -5033,7 +5133,7 @@
       <c r="H58" s="26"/>
       <c r="I58" s="43"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
       <c r="N58" s="1"/>
@@ -5056,7 +5156,7 @@
       <c r="H59" s="26"/>
       <c r="I59" s="43"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
+      <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
       <c r="N59" s="1"/>
@@ -5079,7 +5179,7 @@
       <c r="H60" s="26"/>
       <c r="I60" s="43"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
       <c r="N60" s="1"/>
@@ -5102,10 +5202,10 @@
       <c r="H61" s="26"/>
       <c r="I61" s="44"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="33" t="s">
+      <c r="K61" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L61" s="33"/>
       <c r="M61" s="26"/>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
@@ -5127,10 +5227,10 @@
       <c r="H62" s="26"/>
       <c r="I62" s="44"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="33" t="s">
+      <c r="K62" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L62" s="33"/>
       <c r="M62" s="26"/>
       <c r="N62" s="26"/>
       <c r="O62" s="26"/>
@@ -5152,10 +5252,10 @@
       <c r="H63" s="26"/>
       <c r="I63" s="44"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="33" t="s">
+      <c r="K63" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L63" s="33"/>
       <c r="M63" s="26"/>
       <c r="N63" s="26"/>
       <c r="O63" s="26"/>
@@ -5177,10 +5277,10 @@
       <c r="H64" s="26"/>
       <c r="I64" s="44"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="33" t="s">
+      <c r="K64" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L64" s="33"/>
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
       <c r="O64" s="26"/>
@@ -5202,10 +5302,10 @@
       <c r="H65" s="26"/>
       <c r="I65" s="44"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="33" t="s">
+      <c r="K65" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L65" s="33"/>
       <c r="M65" s="26"/>
       <c r="N65" s="26"/>
       <c r="O65" s="26"/>
@@ -5472,11 +5572,11 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -5527,41 +5627,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -5594,57 +5694,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5669,22 +5769,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5710,7 +5810,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5741,7 +5841,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5770,7 +5870,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5799,7 +5899,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5828,7 +5928,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5857,7 +5957,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5886,7 +5986,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5917,7 +6017,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5946,7 +6046,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5975,7 +6075,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6004,7 +6104,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="52" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -679,6 +679,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,30 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,41 +1069,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1136,57 +1136,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="74" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1217,16 +1217,16 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1288,12 +1288,20 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="58">
+        <v>45022</v>
+      </c>
       <c r="C7" s="58"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="65"/>
+      <c r="D7" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="65">
+        <v>863586032925806</v>
+      </c>
       <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="46"/>
       <c r="I7" s="59"/>
       <c r="J7" s="61"/>
@@ -1307,7 +1315,7 @@
       <c r="R7" s="63"/>
       <c r="S7" s="64"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1336,7 +1344,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1365,7 +1373,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1402,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1423,7 +1431,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1452,7 +1460,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1483,7 +1491,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1512,7 +1520,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1549,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1570,7 +1578,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3271,13 +3279,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3289,6 +3290,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3299,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3332,41 +3340,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3399,57 +3407,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3481,15 +3489,15 @@
         <v>13</v>
       </c>
       <c r="L5" s="83"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,7 +3551,7 @@
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3602,7 +3610,7 @@
       </c>
       <c r="S7" s="64"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3612,12 +3620,20 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="58">
+        <v>45022</v>
+      </c>
       <c r="C8" s="58"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="65"/>
+      <c r="D8" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="65">
+        <v>868183038032095</v>
+      </c>
       <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="46"/>
       <c r="I8" s="59"/>
       <c r="J8" s="61"/>
@@ -3631,7 +3647,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3641,12 +3657,20 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="58">
+        <v>45022</v>
+      </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="65"/>
+      <c r="D9" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="65">
+        <v>868183037802258</v>
+      </c>
       <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="46"/>
       <c r="I9" s="59"/>
       <c r="J9" s="60"/>
@@ -3660,7 +3684,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3670,12 +3694,20 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="58">
+        <v>45022</v>
+      </c>
       <c r="C10" s="58"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="65"/>
+      <c r="D10" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="65">
+        <v>867857039896761</v>
+      </c>
       <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="46"/>
       <c r="I10" s="59"/>
       <c r="J10" s="65"/>
@@ -3689,7 +3721,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3699,12 +3731,20 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="58">
+        <v>45022</v>
+      </c>
       <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="48"/>
+      <c r="D11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="65">
+        <v>868183038547506</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="56"/>
       <c r="I11" s="49"/>
       <c r="J11" s="51"/>
@@ -3718,7 +3758,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3728,12 +3768,20 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="58">
+        <v>45022</v>
+      </c>
       <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="65">
+        <v>868183038540105</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="56"/>
       <c r="I12" s="49"/>
       <c r="J12" s="51"/>
@@ -3747,7 +3795,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3759,12 +3807,20 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="58">
+        <v>45022</v>
+      </c>
       <c r="C13" s="47"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="31"/>
+      <c r="D13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="65">
+        <v>868183038012030</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H13" s="39"/>
       <c r="I13" s="49"/>
       <c r="J13" s="1"/>
@@ -3778,7 +3834,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3788,12 +3844,20 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="58">
+        <v>45022</v>
+      </c>
       <c r="C14" s="47"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="65">
+        <v>862649049663017</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="39"/>
       <c r="I14" s="49"/>
       <c r="J14" s="1"/>
@@ -3807,7 +3871,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3817,12 +3881,20 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="58">
+        <v>45022</v>
+      </c>
       <c r="C15" s="47"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="65">
+        <v>868183037806184</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H15" s="39"/>
       <c r="I15" s="49"/>
       <c r="J15" s="1"/>
@@ -3836,7 +3908,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3846,12 +3918,20 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="58">
+        <v>45022</v>
+      </c>
       <c r="C16" s="47"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="65">
+        <v>868183037811549</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="31"/>
       <c r="I16" s="49"/>
       <c r="J16" s="1"/>
@@ -3865,7 +3945,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3875,12 +3955,20 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="58">
+        <v>45022</v>
+      </c>
       <c r="C17" s="47"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="65">
+        <v>868183034657341</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="49"/>
       <c r="J17" s="12"/>
@@ -3902,12 +3990,20 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="58">
+        <v>45022</v>
+      </c>
       <c r="C18" s="47"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="65">
+        <v>868183038567108</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="49"/>
       <c r="J18" s="1"/>
@@ -3929,12 +4025,20 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="58">
+        <v>45022</v>
+      </c>
       <c r="C19" s="47"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="31"/>
+      <c r="D19" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="65">
+        <v>868183038614017</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="49"/>
       <c r="J19" s="51"/>
@@ -3960,12 +4064,20 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="58">
+        <v>45022</v>
+      </c>
       <c r="C20" s="47"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="65">
+        <v>868183038615527</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="49"/>
       <c r="J20" s="51"/>
@@ -3991,12 +4103,20 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="58">
+        <v>45022</v>
+      </c>
       <c r="C21" s="47"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="D21" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="65">
+        <v>868183038004987</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="49"/>
       <c r="J21" s="51"/>
@@ -4023,12 +4143,20 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="58">
+        <v>45022</v>
+      </c>
       <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="31"/>
+      <c r="D22" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="65">
+        <v>868183038036757</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="43"/>
       <c r="J22" s="3"/>
@@ -4052,12 +4180,20 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="58">
+        <v>45022</v>
+      </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="31"/>
+      <c r="D23" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="65">
+        <v>868183035886204</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="43"/>
       <c r="J23" s="3"/>
@@ -4079,12 +4215,20 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="58">
+        <v>45022</v>
+      </c>
       <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="31"/>
+      <c r="D24" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="65">
+        <v>868183038026519</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="43"/>
       <c r="J24" s="3"/>
@@ -4106,12 +4250,20 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="58">
+        <v>45022</v>
+      </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="65">
+        <v>868183037849192</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="43"/>
       <c r="J25" s="3"/>
@@ -4137,12 +4289,20 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="58">
+        <v>45022</v>
+      </c>
       <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="31"/>
+      <c r="D26" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="65">
+        <v>867857039901405</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="43"/>
       <c r="J26" s="3"/>
@@ -4169,12 +4329,20 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="58">
+        <v>45022</v>
+      </c>
       <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="65">
+        <v>868183037812604</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="43"/>
       <c r="J27" s="3"/>
@@ -4201,12 +4369,20 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="58">
+        <v>45022</v>
+      </c>
       <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="31"/>
+      <c r="D28" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="65">
+        <v>868183037800385</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="43"/>
       <c r="J28" s="1"/>
@@ -5566,6 +5742,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5577,13 +5760,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5627,41 +5803,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -5694,57 +5870,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5769,22 +5945,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,7 +5986,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5841,7 +6017,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5870,7 +6046,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5899,7 +6075,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5928,7 +6104,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5957,7 +6133,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5986,7 +6162,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6017,7 +6193,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6046,7 +6222,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6075,7 +6251,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6104,7 +6280,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7335,13 +7511,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7353,6 +7522,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="52" r:id="rId1"/>
@@ -17,11 +17,11 @@
     <sheet name="TongThang" sheetId="25" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$30</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$50</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -1034,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1288,20 +1288,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="58">
-        <v>45022</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="65">
-        <v>863586032925806</v>
-      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="59"/>
       <c r="J7" s="61"/>
@@ -1317,7 +1309,7 @@
       <c r="T7" s="66"/>
       <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="W7" s="66"/>
     </row>
@@ -1333,7 +1325,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="59"/>
-      <c r="J8" s="61"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
       <c r="M8" s="62"/>
@@ -1346,7 +1338,7 @@
       <c r="T8" s="66"/>
       <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="W8" s="66"/>
     </row>
@@ -1362,9 +1354,9 @@
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="60"/>
       <c r="O9" s="60"/>
@@ -1375,7 +1367,7 @@
       <c r="T9" s="66"/>
       <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="W9" s="66"/>
     </row>
@@ -1383,28 +1375,28 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="66"/>
       <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W10" s="66"/>
     </row>
@@ -1429,11 +1421,13 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="50"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="55"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="68" t="s">
+        <v>19</v>
+      </c>
       <c r="V11" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="W11" s="66"/>
     </row>
@@ -1443,28 +1437,26 @@
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="56"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="53"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
-        <v>19</v>
-      </c>
+      <c r="U12" s="69"/>
       <c r="V12" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="W12" s="66"/>
     </row>
@@ -1493,7 +1485,7 @@
       <c r="T13" s="66"/>
       <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W13" s="66"/>
     </row>
@@ -1522,7 +1514,7 @@
       <c r="T14" s="66"/>
       <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W14" s="66"/>
     </row>
@@ -1536,7 +1528,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="39"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="51"/>
@@ -1549,9 +1541,9 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W15" s="66"/>
     </row>
@@ -1565,9 +1557,9 @@
       <c r="E16" s="32"/>
       <c r="F16" s="39"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="49"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="33"/>
@@ -1578,10 +1570,8 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="U16" s="66"/>
+      <c r="V16" s="13"/>
       <c r="W16" s="66"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1586,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="1"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="51"/>
       <c r="L17" s="51"/>
       <c r="M17" s="33"/>
@@ -1623,20 +1613,24 @@
       <c r="G18" s="31"/>
       <c r="H18" s="1"/>
       <c r="I18" s="49"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="53"/>
       <c r="S18" s="3"/>
       <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="66"/>
+      <c r="U18" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" s="38"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1646,7 +1640,7 @@
       <c r="C19" s="47"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="39"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="1"/>
       <c r="I19" s="49"/>
@@ -1661,13 +1655,13 @@
       <c r="R19" s="53"/>
       <c r="S19" s="3"/>
       <c r="T19" s="66"/>
-      <c r="U19" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="38"/>
+      <c r="U19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="3">
+        <v>4</v>
+      </c>
+      <c r="W19" s="66"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1684,19 +1678,20 @@
       <c r="J20" s="51"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="53"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="3"/>
       <c r="T20" s="66"/>
       <c r="U20" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="V20" s="3">
-        <v>4</v>
+        <f>COUNTIF($Q$6:$Q$50,"PC")</f>
+        <v>1</v>
       </c>
       <c r="W20" s="66"/>
     </row>
@@ -1704,15 +1699,15 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="51"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -1724,12 +1719,9 @@
       <c r="S21" s="3"/>
       <c r="T21" s="66"/>
       <c r="U21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="3">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="V21" s="3"/>
       <c r="W21" s="66"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1755,10 +1747,8 @@
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
       <c r="T22" s="66"/>
-      <c r="U22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="3"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="13"/>
       <c r="W22" s="66"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,9 +1801,13 @@
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
       <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="66"/>
+      <c r="U24" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" s="38"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1838,13 +1832,14 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="66"/>
-      <c r="U25" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="38"/>
+      <c r="U25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" s="3">
+        <f>COUNTIF($R$6:$R$50,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="66"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1870,10 +1865,10 @@
       <c r="S26" s="3"/>
       <c r="T26" s="66"/>
       <c r="U26" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="V26" s="3">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <f>COUNTIF($R$6:$R$50,"*GSM*")</f>
         <v>0</v>
       </c>
       <c r="W26" s="66"/>
@@ -1888,9 +1883,9 @@
       <c r="E27" s="32"/>
       <c r="F27" s="39"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
@@ -1902,10 +1897,10 @@
       <c r="S27" s="3"/>
       <c r="T27" s="66"/>
       <c r="U27" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="V27" s="3">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <f>COUNTIF($R$6:$R$50,"*GPS*")</f>
         <v>0</v>
       </c>
       <c r="W27" s="66"/>
@@ -1934,17 +1929,17 @@
       <c r="S28" s="3"/>
       <c r="T28" s="66"/>
       <c r="U28" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="V28" s="3">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <f>COUNTIF($R$6:$R$50,"*NG*")</f>
         <v>0</v>
       </c>
       <c r="W28" s="66"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -1966,17 +1961,17 @@
       <c r="S29" s="3"/>
       <c r="T29" s="66"/>
       <c r="U29" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="V29" s="3">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <f>COUNTIF($R$6:$R$50,"*I/O*")</f>
         <v>0</v>
       </c>
       <c r="W29" s="66"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -1998,17 +1993,14 @@
       <c r="S30" s="3"/>
       <c r="T30" s="66"/>
       <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="3">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="V30" s="3"/>
       <c r="W30" s="66"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -2030,14 +2022,17 @@
       <c r="S31" s="3"/>
       <c r="T31" s="66"/>
       <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="V31" s="3">
+        <f>COUNTIF($R$6:$R$50,"*MCH*")</f>
+        <v>0</v>
+      </c>
       <c r="W31" s="66"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -2059,17 +2054,17 @@
       <c r="S32" s="3"/>
       <c r="T32" s="66"/>
       <c r="U32" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="V32" s="3">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <f>COUNTIF($R$6:$R$50,"*SF*")</f>
         <v>0</v>
       </c>
       <c r="W32" s="66"/>
     </row>
     <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -2091,17 +2086,17 @@
       <c r="S33" s="3"/>
       <c r="T33" s="66"/>
       <c r="U33" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V33" s="3">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <f>COUNTIF($R$6:$R$50,"*RTB*")</f>
         <v>0</v>
       </c>
       <c r="W33" s="66"/>
     </row>
     <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -2123,17 +2118,14 @@
       <c r="S34" s="3"/>
       <c r="T34" s="66"/>
       <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="3">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="V34" s="3"/>
       <c r="W34" s="66"/>
     </row>
     <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -2155,14 +2147,14 @@
       <c r="S35" s="3"/>
       <c r="T35" s="66"/>
       <c r="U35" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="66"/>
     </row>
     <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -2183,15 +2175,15 @@
       <c r="R36" s="2"/>
       <c r="S36" s="3"/>
       <c r="T36" s="66"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
+      <c r="U36" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="66"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -2212,15 +2204,13 @@
       <c r="R37" s="2"/>
       <c r="S37" s="3"/>
       <c r="T37" s="66"/>
-      <c r="U37" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="3"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="13"/>
       <c r="W37" s="66"/>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -2247,7 +2237,7 @@
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -2268,13 +2258,18 @@
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
       <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="13"/>
+      <c r="U39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="V39" s="3">
+        <f>COUNTIF($O$6:$O$50,"*DM*")</f>
+        <v>0</v>
+      </c>
       <c r="W39" s="66"/>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -2296,17 +2291,17 @@
       <c r="S40" s="3"/>
       <c r="T40" s="66"/>
       <c r="U40" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V40" s="3">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <f>COUNTIF($O$6:$O$50,"*KS*")</f>
         <v>0</v>
       </c>
       <c r="W40" s="66"/>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -2327,18 +2322,13 @@
       <c r="R41" s="2"/>
       <c r="S41" s="3"/>
       <c r="T41" s="66"/>
-      <c r="U41" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="3">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
+      <c r="U41" s="66"/>
+      <c r="V41" s="13"/>
       <c r="W41" s="66"/>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -2365,7 +2355,7 @@
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -2386,13 +2376,22 @@
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
       <c r="T43" s="66"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="66"/>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -2414,21 +2413,24 @@
       <c r="S44" s="3"/>
       <c r="T44" s="66"/>
       <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="V44" s="3">
+        <f>COUNTIFS($D$6:$D$299,"TG102LE",$H$6:$H$299,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <f>COUNTIFS($D$6:$D$299,"TG102LE",$H$6:$H$299,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <f>COUNTIFS($D$6:$D$299,"TG102LE",$H$6:$H$299,"*Lô 2-21*")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -2450,24 +2452,24 @@
       <c r="S45" s="3"/>
       <c r="T45" s="66"/>
       <c r="U45" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="V45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102LE-4G",$H$6:$H$299,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102LE-4G",$H$6:$H$299,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102LE-4G",$H$6:$H$299,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -2489,24 +2491,24 @@
       <c r="S46" s="3"/>
       <c r="T46" s="66"/>
       <c r="U46" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="V46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102E",$H$6:$H$299,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102E",$H$6:$H$299,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102E",$H$6:$H$299,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -2526,26 +2528,29 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="2"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="66"/>
+      <c r="T47" s="28" t="e">
+        <f>COUNTIF(#REF!,"*GSM*")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U47" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="V47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$299,"ACT-01",$H$6:$H$299,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"ACT-01",$H$6:$H$299,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"ACT-01",$H$6:$H$299,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -2565,29 +2570,15 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="28" t="e">
-        <f>COUNTIF(#REF!,"*GSM*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
+      <c r="T48" s="28"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="26"/>
     </row>
     <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
+      <c r="A49" s="22">
+        <v>45</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -2595,9 +2586,9 @@
       <c r="E49" s="32"/>
       <c r="F49" s="39"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="43"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
@@ -2606,7 +2597,7 @@
       <c r="P49" s="33"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
+      <c r="S49" s="22"/>
       <c r="T49" s="28"/>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
@@ -2614,8 +2605,8 @@
       <c r="X49" s="26"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
-        <v>45</v>
+      <c r="A50" s="3">
+        <v>46</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -2623,9 +2614,9 @@
       <c r="E50" s="32"/>
       <c r="F50" s="39"/>
       <c r="G50" s="31"/>
-      <c r="H50" s="25"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="43"/>
-      <c r="J50" s="25"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33"/>
@@ -2634,7 +2625,7 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="22"/>
+      <c r="S50" s="3"/>
       <c r="T50" s="28"/>
       <c r="U50" s="35"/>
       <c r="V50" s="35"/>
@@ -2643,7 +2634,7 @@
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -2651,9 +2642,9 @@
       <c r="E51" s="32"/>
       <c r="F51" s="39"/>
       <c r="G51" s="31"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="43"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="26"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33"/>
@@ -2662,7 +2653,7 @@
       <c r="P51" s="33"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="3"/>
+      <c r="S51" s="26"/>
       <c r="T51" s="28"/>
       <c r="U51" s="35"/>
       <c r="V51" s="35"/>
@@ -2671,7 +2662,7 @@
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -2699,7 +2690,7 @@
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2727,7 +2718,7 @@
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -2747,7 +2738,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="2"/>
       <c r="S54" s="26"/>
-      <c r="T54" s="28"/>
+      <c r="T54" s="29"/>
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
@@ -2755,7 +2746,7 @@
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -2775,15 +2766,13 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="2"/>
       <c r="S55" s="26"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="26"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="66"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -2809,7 +2798,7 @@
     </row>
     <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -2829,19 +2818,16 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="2"/>
       <c r="S57" s="26"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
     </row>
     <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="31"/>
       <c r="E58" s="32"/>
-      <c r="F58" s="39"/>
+      <c r="F58" s="31"/>
       <c r="G58" s="31"/>
       <c r="H58" s="26"/>
       <c r="I58" s="43"/>
@@ -2858,7 +2844,7 @@
     </row>
     <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -2881,30 +2867,32 @@
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="43"/>
+      <c r="I60" s="44"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="33"/>
+      <c r="K60" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="26"/>
@@ -2929,7 +2917,7 @@
     </row>
     <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="26"/>
@@ -2954,7 +2942,7 @@
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="26"/>
@@ -2979,7 +2967,7 @@
     </row>
     <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" s="30"/>
       <c r="C64" s="26"/>
@@ -3002,278 +2990,253 @@
       <c r="R64" s="26"/>
       <c r="S64" s="26"/>
     </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
         <v>110</v>
       </c>
     </row>
@@ -3290,8 +3253,8 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U11:U15"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
@@ -3305,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3620,36 +3583,31 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="65">
-        <v>868183038032095</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
+      <c r="U8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="3">
+        <f>COUNTIF($R$6:$R$30,"*NG*")</f>
+        <v>0</v>
       </c>
       <c r="W8" s="12"/>
     </row>
@@ -3657,36 +3615,31 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="65">
-        <v>868183037802258</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
+      <c r="U9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="3">
+        <f>COUNTIF($R$6:$R$30,"*I/O*")</f>
+        <v>0</v>
       </c>
       <c r="W9" s="12"/>
     </row>
@@ -3694,73 +3647,60 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="65">
-        <v>867857039896761</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="3"/>
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="65">
-        <v>868183038547506</v>
-      </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="55"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
+      <c r="U11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="3">
+        <f>COUNTIF($R$6:$R$30,"*MCH*")</f>
+        <v>0</v>
       </c>
       <c r="W11" s="12"/>
     </row>
@@ -3768,38 +3708,31 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="65">
-        <v>868183038540105</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="53"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
+      <c r="U12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="3">
+        <f>COUNTIF($R$6:$R$30,"*SF*")</f>
+        <v>0</v>
       </c>
       <c r="W12" s="12"/>
     </row>
@@ -3807,25 +3740,17 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="65">
-        <v>868183038012030</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="49"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -3834,9 +3759,12 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
+      <c r="U13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="3">
+        <f>COUNTIF($R$6:$R$30,"*RTB*")</f>
+        <v>0</v>
       </c>
       <c r="W13" s="12"/>
     </row>
@@ -3844,25 +3772,17 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="65">
-        <v>862649049663017</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="49"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -3871,35 +3791,27 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="U14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="3"/>
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="65">
-        <v>868183037806184</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="49"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="33"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3908,35 +3820,27 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="U15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="3"/>
       <c r="W15" s="12"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="65">
-        <v>868183037811549</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="49"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="33"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -3945,35 +3849,27 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="U16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="3"/>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="65">
-        <v>868183034657341</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="33"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -3986,29 +3882,21 @@
       <c r="V17" s="13"/>
       <c r="W17" s="12"/>
     </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="65">
-        <v>868183038567108</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="49"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4021,105 +3909,83 @@
       <c r="V18" s="13"/>
       <c r="W18" s="12"/>
     </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="65">
-        <v>868183038614017</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="51"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="53"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="38"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="3">
+        <f>COUNTIF($O$6:$O$30,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="12"/>
+    </row>
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="65">
-        <v>868183038615527</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="53"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="3"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="3" t="s">
-        <v>17</v>
+      <c r="U20" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="V20" s="3">
-        <v>4</v>
+        <f>COUNTIF($O$6:$O$30,"*KS*")</f>
+        <v>0</v>
       </c>
       <c r="W20" s="12"/>
     </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="58">
-        <v>45022</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="65">
-        <v>868183038004987</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="51"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -4130,36 +3996,23 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="3">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
+      <c r="U21" s="12"/>
+      <c r="V21" s="13"/>
       <c r="W21" s="12"/>
     </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="58">
-        <v>45022</v>
-      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="65">
-        <v>868183038036757</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="43"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -4170,33 +4023,23 @@
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="3"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="13"/>
       <c r="W22" s="12"/>
     </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="58">
-        <v>45022</v>
-      </c>
+      <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="65">
-        <v>868183035886204</v>
-      </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="3"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -4207,31 +4050,32 @@
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="12"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="58">
-        <v>45022</v>
-      </c>
+      <c r="B24" s="30"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="65">
-        <v>868183038026519</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="3"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -4242,31 +4086,35 @@
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="12"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V24" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102LE",$H$6:$H$279,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102LE",$H$6:$H$279,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102LE",$H$6:$H$279,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="58">
-        <v>45022</v>
-      </c>
+      <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="65">
-        <v>868183037849192</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -4277,35 +4125,35 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="38"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102LE-4G",$H$6:$H$279,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102LE-4G",$H$6:$H$279,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102LE-4G",$H$6:$H$279,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="58">
-        <v>45022</v>
-      </c>
+      <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="65">
-        <v>867857039901405</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="3"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -4317,35 +4165,34 @@
       <c r="S26" s="3"/>
       <c r="T26" s="12"/>
       <c r="U26" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="V26" s="3">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="12"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>COUNTIFS($D$6:$D$279,"TG102E",$H$6:$H$279,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102E",$H$6:$H$279,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <f>COUNTIFS($D$6:$D$279,"TG102E",$H$6:$H$279,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="58">
-        <v>45022</v>
-      </c>
+      <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="65">
-        <v>868183037812604</v>
-      </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
@@ -4355,34 +4202,36 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="2"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="12"/>
+      <c r="T27" s="28" t="e">
+        <f>COUNTIF(#REF!,"*GSM*")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U27" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="V27" s="3">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="12"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>COUNTIFS($D$6:$D$279,"ACT-01",$H$6:$H$279,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <f>COUNTIFS($D$6:$D$279,"ACT-01",$H$6:$H$279,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <f>COUNTIFS($D$6:$D$279,"ACT-01",$H$6:$H$279,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="58">
-        <v>45022</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="65">
-        <v>868183037800385</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="1"/>
       <c r="I28" s="43"/>
       <c r="J28" s="1"/>
@@ -4395,19 +4244,15 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="2"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="3">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="12"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
+      <c r="T28" s="28"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="26"/>
+    </row>
+    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>45</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -4415,9 +4260,9 @@
       <c r="E29" s="32"/>
       <c r="F29" s="39"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="43"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
@@ -4426,20 +4271,16 @@
       <c r="P29" s="33"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="3">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="12"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="22"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="26"/>
+    </row>
+    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -4459,19 +4300,15 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="3">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="12"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="28"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="26"/>
+    </row>
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -4479,9 +4316,9 @@
       <c r="E31" s="32"/>
       <c r="F31" s="39"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="43"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
@@ -4490,17 +4327,16 @@
       <c r="P31" s="33"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="3"/>
-      <c r="W31" s="12"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="26"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="26"/>
+    </row>
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -4508,9 +4344,9 @@
       <c r="E32" s="32"/>
       <c r="F32" s="39"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="43"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
@@ -4519,20 +4355,16 @@
       <c r="P32" s="33"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="3">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="12"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="26"/>
     </row>
     <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -4540,9 +4372,9 @@
       <c r="E33" s="32"/>
       <c r="F33" s="39"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="43"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
@@ -4551,20 +4383,16 @@
       <c r="P33" s="33"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="3">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="12"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="26"/>
     </row>
     <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -4572,9 +4400,9 @@
       <c r="E34" s="32"/>
       <c r="F34" s="39"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
@@ -4583,20 +4411,16 @@
       <c r="P34" s="33"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="3">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="12"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="26"/>
     </row>
     <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -4604,9 +4428,9 @@
       <c r="E35" s="32"/>
       <c r="F35" s="39"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="26"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
@@ -4615,17 +4439,14 @@
       <c r="P35" s="33"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="3"/>
+      <c r="S35" s="26"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
       <c r="W35" s="12"/>
     </row>
     <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -4633,9 +4454,9 @@
       <c r="E36" s="32"/>
       <c r="F36" s="39"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="43"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="26"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
@@ -4644,17 +4465,14 @@
       <c r="P36" s="33"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="3"/>
+      <c r="S36" s="26"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
       <c r="W36" s="12"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -4662,9 +4480,9 @@
       <c r="E37" s="32"/>
       <c r="F37" s="39"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="43"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
@@ -4673,27 +4491,21 @@
       <c r="P37" s="33"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="3"/>
-      <c r="W37" s="12"/>
+      <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="31"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="39"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="43"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
@@ -4702,25 +4514,21 @@
       <c r="P38" s="33"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="12"/>
+      <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="39"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="43"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
@@ -4729,1021 +4537,386 @@
       <c r="P39" s="33"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="12"/>
+      <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="33"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="3">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="12"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="33"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="3">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="12"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="33"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="12"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="33"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="12"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="33"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="28" t="e">
-        <f>COUNTIF(#REF!,"*GSM*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="26"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
-        <v>45</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="26"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="26"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="26"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="26"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="26"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="26"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="26"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="26"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="26"/>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="26"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="26"/>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L61" s="33"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L62" s="33"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-    </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L63" s="33"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L64" s="33"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
+  <mergeCells count="17">
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="52" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -476,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -619,9 +619,6 @@
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -637,18 +634,12 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,6 +670,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,32 +709,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,41 +1060,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1136,111 +1127,111 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="55">
         <v>45019</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="62">
         <v>869627031845225</v>
       </c>
       <c r="F6" s="46"/>
@@ -1248,204 +1239,252 @@
         <v>62</v>
       </c>
       <c r="H6" s="46"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60" t="s">
+      <c r="N6" s="57"/>
+      <c r="O6" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="60" t="s">
+      <c r="Q6" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="64"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="S6" s="61"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="66"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="65"/>
+      <c r="B7" s="30">
+        <v>45028</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="62">
+        <v>868926033921286</v>
+      </c>
       <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="66"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="65"/>
+      <c r="B8" s="30">
+        <v>45028</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="62">
+        <v>869627031844913</v>
+      </c>
       <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="46"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="66"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="65"/>
+      <c r="B9" s="30">
+        <v>45028</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="62">
+        <v>869627031758477</v>
+      </c>
       <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="46"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="66"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="30">
+        <v>45028</v>
+      </c>
       <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="D10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="62">
+        <v>869627031775646</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="66"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="30">
+        <v>45028</v>
+      </c>
       <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="53"/>
+      <c r="D11" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="62">
+        <v>863586032910717</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="52"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="68" t="s">
+      <c r="T11" s="63"/>
+      <c r="U11" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="66"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="30">
+        <v>45028</v>
+      </c>
       <c r="C12" s="47"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="62">
+        <v>864811036930076</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="33"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1453,12 +1492,12 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="69"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="74"/>
       <c r="V12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="66"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1471,10 +1510,10 @@
       <c r="F13" s="39"/>
       <c r="G13" s="31"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="49"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1482,12 +1521,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="66"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1500,10 +1539,10 @@
       <c r="F14" s="39"/>
       <c r="G14" s="31"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="49"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="33"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1511,12 +1550,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="66"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1529,10 +1568,10 @@
       <c r="F15" s="39"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="49"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="33"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1540,12 +1579,12 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="70"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="66"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1558,10 +1597,10 @@
       <c r="F16" s="39"/>
       <c r="G16" s="31"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="33"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1569,10 +1608,10 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="66"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1585,10 +1624,10 @@
       <c r="F17" s="39"/>
       <c r="G17" s="31"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="33"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1596,10 +1635,10 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="66"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1612,19 +1651,19 @@
       <c r="F18" s="39"/>
       <c r="G18" s="31"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="51"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="53"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="52"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="67" t="s">
+      <c r="T18" s="63"/>
+      <c r="U18" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V18" s="14" t="s">
@@ -1643,25 +1682,25 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="51"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="53"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="52"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="66"/>
+      <c r="T19" s="63"/>
       <c r="U19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V19" s="3">
         <v>4</v>
       </c>
-      <c r="W19" s="66"/>
+      <c r="W19" s="63"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1674,8 +1713,8 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
@@ -1685,7 +1724,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="66"/>
+      <c r="T20" s="63"/>
       <c r="U20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1693,7 +1732,7 @@
         <f>COUNTIF($Q$6:$Q$50,"PC")</f>
         <v>1</v>
       </c>
-      <c r="W20" s="66"/>
+      <c r="W20" s="63"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1717,12 +1756,12 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="66"/>
+      <c r="T21" s="63"/>
       <c r="U21" s="3" t="s">
         <v>50</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="66"/>
+      <c r="W21" s="63"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1746,10 +1785,10 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="66"/>
+      <c r="W22" s="63"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1773,10 +1812,10 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="66"/>
+      <c r="W23" s="63"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1800,8 +1839,8 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="67" t="s">
+      <c r="T24" s="63"/>
+      <c r="U24" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V24" s="14" t="s">
@@ -1831,7 +1870,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="66"/>
+      <c r="T25" s="63"/>
       <c r="U25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1878,7 @@
         <f>COUNTIF($R$6:$R$50,"*MCU*")</f>
         <v>0</v>
       </c>
-      <c r="W25" s="66"/>
+      <c r="W25" s="63"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1863,7 +1902,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="2"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="66"/>
+      <c r="T26" s="63"/>
       <c r="U26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1871,7 +1910,7 @@
         <f>COUNTIF($R$6:$R$50,"*GSM*")</f>
         <v>0</v>
       </c>
-      <c r="W26" s="66"/>
+      <c r="W26" s="63"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1895,7 +1934,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="2"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="66"/>
+      <c r="T27" s="63"/>
       <c r="U27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1903,7 +1942,7 @@
         <f>COUNTIF($R$6:$R$50,"*GPS*")</f>
         <v>0</v>
       </c>
-      <c r="W27" s="66"/>
+      <c r="W27" s="63"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1927,7 +1966,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="2"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="66"/>
+      <c r="T28" s="63"/>
       <c r="U28" s="3" t="s">
         <v>52</v>
       </c>
@@ -1935,7 +1974,7 @@
         <f>COUNTIF($R$6:$R$50,"*NG*")</f>
         <v>0</v>
       </c>
-      <c r="W28" s="66"/>
+      <c r="W28" s="63"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -1959,7 +1998,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="2"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="66"/>
+      <c r="T29" s="63"/>
       <c r="U29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1967,7 +2006,7 @@
         <f>COUNTIF($R$6:$R$50,"*I/O*")</f>
         <v>0</v>
       </c>
-      <c r="W29" s="66"/>
+      <c r="W29" s="63"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1991,12 +2030,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="66"/>
+      <c r="T30" s="63"/>
       <c r="U30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="V30" s="3"/>
-      <c r="W30" s="66"/>
+      <c r="W30" s="63"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -2020,7 +2059,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="2"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="66"/>
+      <c r="T31" s="63"/>
       <c r="U31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2067,7 @@
         <f>COUNTIF($R$6:$R$50,"*MCH*")</f>
         <v>0</v>
       </c>
-      <c r="W31" s="66"/>
+      <c r="W31" s="63"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -2052,7 +2091,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="2"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="66"/>
+      <c r="T32" s="63"/>
       <c r="U32" s="3" t="s">
         <v>47</v>
       </c>
@@ -2060,7 +2099,7 @@
         <f>COUNTIF($R$6:$R$50,"*SF*")</f>
         <v>0</v>
       </c>
-      <c r="W32" s="66"/>
+      <c r="W32" s="63"/>
     </row>
     <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -2084,7 +2123,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="2"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="66"/>
+      <c r="T33" s="63"/>
       <c r="U33" s="3" t="s">
         <v>48</v>
       </c>
@@ -2092,7 +2131,7 @@
         <f>COUNTIF($R$6:$R$50,"*RTB*")</f>
         <v>0</v>
       </c>
-      <c r="W33" s="66"/>
+      <c r="W33" s="63"/>
     </row>
     <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2116,12 +2155,12 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="2"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="66"/>
+      <c r="T34" s="63"/>
       <c r="U34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="V34" s="3"/>
-      <c r="W34" s="66"/>
+      <c r="W34" s="63"/>
     </row>
     <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -2145,12 +2184,12 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="2"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="66"/>
+      <c r="T35" s="63"/>
       <c r="U35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V35" s="3"/>
-      <c r="W35" s="66"/>
+      <c r="W35" s="63"/>
     </row>
     <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -2174,12 +2213,12 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="2"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="66"/>
+      <c r="T36" s="63"/>
       <c r="U36" s="15" t="s">
         <v>33</v>
       </c>
       <c r="V36" s="3"/>
-      <c r="W36" s="66"/>
+      <c r="W36" s="63"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -2203,10 +2242,10 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="2"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
       <c r="V37" s="13"/>
-      <c r="W37" s="66"/>
+      <c r="W37" s="63"/>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -2230,10 +2269,10 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="2"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
       <c r="V38" s="13"/>
-      <c r="W38" s="66"/>
+      <c r="W38" s="63"/>
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -2257,7 +2296,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="66"/>
+      <c r="T39" s="63"/>
       <c r="U39" s="15" t="s">
         <v>40</v>
       </c>
@@ -2265,7 +2304,7 @@
         <f>COUNTIF($O$6:$O$50,"*DM*")</f>
         <v>0</v>
       </c>
-      <c r="W39" s="66"/>
+      <c r="W39" s="63"/>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -2289,7 +2328,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="2"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="66"/>
+      <c r="T40" s="63"/>
       <c r="U40" s="15" t="s">
         <v>41</v>
       </c>
@@ -2297,7 +2336,7 @@
         <f>COUNTIF($O$6:$O$50,"*KS*")</f>
         <v>0</v>
       </c>
-      <c r="W40" s="66"/>
+      <c r="W40" s="63"/>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -2321,10 +2360,10 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="2"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
       <c r="V41" s="13"/>
-      <c r="W41" s="66"/>
+      <c r="W41" s="63"/>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -2348,10 +2387,10 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
       <c r="V42" s="13"/>
-      <c r="W42" s="66"/>
+      <c r="W42" s="63"/>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -2375,7 +2414,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="66"/>
+      <c r="T43" s="63"/>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,7 +2450,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="66"/>
+      <c r="T44" s="63"/>
       <c r="U44" s="3" t="s">
         <v>44</v>
       </c>
@@ -2450,7 +2489,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="2"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="66"/>
+      <c r="T45" s="63"/>
       <c r="U45" s="3" t="s">
         <v>56</v>
       </c>
@@ -2489,7 +2528,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="2"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="66"/>
+      <c r="T46" s="63"/>
       <c r="U46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2766,9 +2805,9 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="2"/>
       <c r="S55" s="26"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
@@ -2792,9 +2831,9 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="2"/>
       <c r="S56" s="26"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="66"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="63"/>
     </row>
     <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -3242,6 +3281,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3253,13 +3299,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U11:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3270,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3303,41 +3342,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3370,57 +3409,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="82" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3451,30 +3490,32 @@
       <c r="K5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="55">
         <v>45019</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="55">
+        <v>45027</v>
+      </c>
       <c r="D6" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="62">
         <v>868183034584404</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -3486,35 +3527,35 @@
       <c r="H6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60" t="s">
+      <c r="N6" s="57"/>
+      <c r="O6" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="60" t="s">
+      <c r="Q6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="64"/>
+      <c r="S6" s="61"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3526,16 +3567,16 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="55">
         <v>45019</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="55">
         <v>45020</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="62">
         <v>860157040208073</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -3545,35 +3586,35 @@
         <v>62</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61" t="s">
+      <c r="K7" s="58"/>
+      <c r="L7" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60" t="s">
+      <c r="N7" s="57"/>
+      <c r="O7" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="Q7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="63" t="s">
+      <c r="R7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="64"/>
+      <c r="S7" s="61"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3583,12 +3624,20 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="30">
+        <v>45028</v>
+      </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="31"/>
+      <c r="D8" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="62">
+        <v>868183033848073</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="43"/>
       <c r="J8" s="1"/>
@@ -3615,12 +3664,20 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="30">
+        <v>45028</v>
+      </c>
       <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="31"/>
+      <c r="D9" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="62">
+        <v>868183034640107</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="43"/>
       <c r="J9" s="1"/>
@@ -3647,12 +3704,20 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="30">
+        <v>45028</v>
+      </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="31"/>
+      <c r="D10" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="62">
+        <v>868183035892731</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="43"/>
       <c r="J10" s="1"/>
@@ -3676,12 +3741,20 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="30">
+        <v>45028</v>
+      </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="62">
+        <v>868183035941900</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="43"/>
       <c r="J11" s="1"/>
@@ -4916,12 +4989,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4933,6 +5000,12 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4976,41 +5049,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -5043,57 +5116,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5118,22 +5191,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="78"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5159,7 +5232,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5190,7 +5263,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5219,7 +5292,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5248,7 +5321,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5277,7 +5350,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5306,7 +5379,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5335,7 +5408,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5366,7 +5439,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5395,7 +5468,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5424,7 +5497,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5453,7 +5526,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6684,6 +6757,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6695,13 +6775,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="52" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -274,13 +274,58 @@
   </si>
   <si>
     <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ,sim lỗi</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +394,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -476,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,12 +686,6 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,6 +716,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,6 +769,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,41 +1115,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1127,111 +1182,111 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="71" t="s">
+      <c r="K4" s="64"/>
+      <c r="L4" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="53">
         <v>45019</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="60">
         <v>869627031845225</v>
       </c>
       <c r="F6" s="46"/>
@@ -1239,91 +1294,109 @@
         <v>62</v>
       </c>
       <c r="H6" s="46"/>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59" t="s">
+      <c r="K6" s="57"/>
+      <c r="L6" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57" t="s">
+      <c r="N6" s="55"/>
+      <c r="O6" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="59" t="s">
+      <c r="P6" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="57" t="s">
+      <c r="Q6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="60" t="s">
+      <c r="R6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="61"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="S6" s="59"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="63"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="53">
         <v>45028</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="60">
         <v>868926033921286</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="H7" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="59"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="63"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="53">
         <v>45028</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="60">
         <v>869627031844913</v>
       </c>
       <c r="F8" s="46"/>
@@ -1331,36 +1404,52 @@
         <v>62</v>
       </c>
       <c r="H8" s="46"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="I8" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="59"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="63"/>
+      <c r="W8" s="61"/>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="53">
         <v>45028</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="60">
         <v>869627031758477</v>
       </c>
       <c r="F9" s="46"/>
@@ -1368,250 +1457,324 @@
         <v>62</v>
       </c>
       <c r="H9" s="46"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="I9" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="59"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="63"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="53">
         <v>45028</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="60">
         <v>869627031775646</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="59"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="63"/>
+      <c r="W10" s="61"/>
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="53">
         <v>45028</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="60">
         <v>863586032910717</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="73" t="s">
+      <c r="H11" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="59"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="63"/>
+      <c r="W11" s="61"/>
     </row>
     <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="53">
         <v>45028</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="60">
         <v>864811036930076</v>
       </c>
       <c r="F12" s="46"/>
       <c r="G12" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="74"/>
+      <c r="H12" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="59"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="73"/>
       <c r="V12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="63"/>
+      <c r="W12" s="61"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="63"/>
+      <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="63"/>
+      <c r="W14" s="61"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="75"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="63"/>
+      <c r="W15" s="61"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="63"/>
+      <c r="W16" s="61"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1635,10 +1798,10 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="63"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1662,8 +1825,8 @@
       <c r="Q18" s="49"/>
       <c r="R18" s="52"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="64" t="s">
+      <c r="T18" s="61"/>
+      <c r="U18" s="62" t="s">
         <v>39</v>
       </c>
       <c r="V18" s="14" t="s">
@@ -1693,14 +1856,14 @@
       <c r="Q19" s="49"/>
       <c r="R19" s="52"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="63"/>
+      <c r="T19" s="61"/>
       <c r="U19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V19" s="3">
         <v>4</v>
       </c>
-      <c r="W19" s="63"/>
+      <c r="W19" s="61"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1724,15 +1887,15 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="63"/>
+      <c r="T20" s="61"/>
       <c r="U20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$50,"PC")</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="63"/>
+        <v>3</v>
+      </c>
+      <c r="W20" s="61"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1756,12 +1919,12 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="63"/>
+      <c r="T21" s="61"/>
       <c r="U21" s="3" t="s">
         <v>50</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="63"/>
+      <c r="W21" s="61"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1785,10 +1948,10 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="63"/>
+      <c r="W22" s="61"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1812,10 +1975,10 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="63"/>
+      <c r="W23" s="61"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1839,8 +2002,8 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="64" t="s">
+      <c r="T24" s="61"/>
+      <c r="U24" s="62" t="s">
         <v>46</v>
       </c>
       <c r="V24" s="14" t="s">
@@ -1870,7 +2033,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="63"/>
+      <c r="T25" s="61"/>
       <c r="U25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1878,7 +2041,7 @@
         <f>COUNTIF($R$6:$R$50,"*MCU*")</f>
         <v>0</v>
       </c>
-      <c r="W25" s="63"/>
+      <c r="W25" s="61"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1902,7 +2065,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="2"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="63"/>
+      <c r="T26" s="61"/>
       <c r="U26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1910,7 +2073,7 @@
         <f>COUNTIF($R$6:$R$50,"*GSM*")</f>
         <v>0</v>
       </c>
-      <c r="W26" s="63"/>
+      <c r="W26" s="61"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1934,7 +2097,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="2"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="63"/>
+      <c r="T27" s="61"/>
       <c r="U27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1942,7 +2105,7 @@
         <f>COUNTIF($R$6:$R$50,"*GPS*")</f>
         <v>0</v>
       </c>
-      <c r="W27" s="63"/>
+      <c r="W27" s="61"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1966,15 +2129,15 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="2"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="63"/>
+      <c r="T28" s="61"/>
       <c r="U28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="V28" s="3">
         <f>COUNTIF($R$6:$R$50,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="61"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -1998,7 +2161,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="2"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="63"/>
+      <c r="T29" s="61"/>
       <c r="U29" s="3" t="s">
         <v>32</v>
       </c>
@@ -2006,7 +2169,7 @@
         <f>COUNTIF($R$6:$R$50,"*I/O*")</f>
         <v>0</v>
       </c>
-      <c r="W29" s="63"/>
+      <c r="W29" s="61"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -2030,12 +2193,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="63"/>
+      <c r="T30" s="61"/>
       <c r="U30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="V30" s="3"/>
-      <c r="W30" s="63"/>
+      <c r="W30" s="61"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -2059,7 +2222,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="2"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="63"/>
+      <c r="T31" s="61"/>
       <c r="U31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2230,7 @@
         <f>COUNTIF($R$6:$R$50,"*MCH*")</f>
         <v>0</v>
       </c>
-      <c r="W31" s="63"/>
+      <c r="W31" s="61"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -2091,7 +2254,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="2"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="63"/>
+      <c r="T32" s="61"/>
       <c r="U32" s="3" t="s">
         <v>47</v>
       </c>
@@ -2099,7 +2262,7 @@
         <f>COUNTIF($R$6:$R$50,"*SF*")</f>
         <v>0</v>
       </c>
-      <c r="W32" s="63"/>
+      <c r="W32" s="61"/>
     </row>
     <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -2123,7 +2286,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="2"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="63"/>
+      <c r="T33" s="61"/>
       <c r="U33" s="3" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2294,7 @@
         <f>COUNTIF($R$6:$R$50,"*RTB*")</f>
         <v>0</v>
       </c>
-      <c r="W33" s="63"/>
+      <c r="W33" s="61"/>
     </row>
     <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2155,12 +2318,12 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="2"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="63"/>
+      <c r="T34" s="61"/>
       <c r="U34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="V34" s="3"/>
-      <c r="W34" s="63"/>
+      <c r="W34" s="61"/>
     </row>
     <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -2184,12 +2347,12 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="2"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="63"/>
+      <c r="T35" s="61"/>
       <c r="U35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V35" s="3"/>
-      <c r="W35" s="63"/>
+      <c r="W35" s="61"/>
     </row>
     <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -2213,12 +2376,12 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="2"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="63"/>
+      <c r="T36" s="61"/>
       <c r="U36" s="15" t="s">
         <v>33</v>
       </c>
       <c r="V36" s="3"/>
-      <c r="W36" s="63"/>
+      <c r="W36" s="61"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -2242,10 +2405,10 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="2"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
       <c r="V37" s="13"/>
-      <c r="W37" s="63"/>
+      <c r="W37" s="61"/>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -2269,10 +2432,10 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="2"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
       <c r="V38" s="13"/>
-      <c r="W38" s="63"/>
+      <c r="W38" s="61"/>
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -2296,7 +2459,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="63"/>
+      <c r="T39" s="61"/>
       <c r="U39" s="15" t="s">
         <v>40</v>
       </c>
@@ -2304,7 +2467,7 @@
         <f>COUNTIF($O$6:$O$50,"*DM*")</f>
         <v>0</v>
       </c>
-      <c r="W39" s="63"/>
+      <c r="W39" s="61"/>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -2328,7 +2491,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="2"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="63"/>
+      <c r="T40" s="61"/>
       <c r="U40" s="15" t="s">
         <v>41</v>
       </c>
@@ -2336,7 +2499,7 @@
         <f>COUNTIF($O$6:$O$50,"*KS*")</f>
         <v>0</v>
       </c>
-      <c r="W40" s="63"/>
+      <c r="W40" s="61"/>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -2360,10 +2523,10 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="2"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
       <c r="V41" s="13"/>
-      <c r="W41" s="63"/>
+      <c r="W41" s="61"/>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -2387,10 +2550,10 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
       <c r="V42" s="13"/>
-      <c r="W42" s="63"/>
+      <c r="W42" s="61"/>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -2414,7 +2577,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="63"/>
+      <c r="T43" s="61"/>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2613,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="63"/>
+      <c r="T44" s="61"/>
       <c r="U44" s="3" t="s">
         <v>44</v>
       </c>
@@ -2489,7 +2652,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="2"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="63"/>
+      <c r="T45" s="61"/>
       <c r="U45" s="3" t="s">
         <v>56</v>
       </c>
@@ -2528,7 +2691,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="2"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="63"/>
+      <c r="T46" s="61"/>
       <c r="U46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2805,9 +2968,9 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="2"/>
       <c r="S55" s="26"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="61"/>
+      <c r="W55" s="61"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
@@ -2831,9 +2994,9 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="2"/>
       <c r="S56" s="26"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="63"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
     </row>
     <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -3309,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showZeros="0" topLeftCell="B4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3342,41 +3505,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3409,57 +3572,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="64"/>
+      <c r="L4" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3490,32 +3653,32 @@
       <c r="K5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="53">
         <v>45019</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="53">
         <v>45027</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="60">
         <v>868183034584404</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -3527,35 +3690,35 @@
       <c r="H6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59" t="s">
+      <c r="K6" s="57"/>
+      <c r="L6" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57" t="s">
+      <c r="N6" s="55"/>
+      <c r="O6" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="59" t="s">
+      <c r="P6" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="57" t="s">
+      <c r="Q6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="60" t="s">
+      <c r="R6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="61"/>
+      <c r="S6" s="59"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3567,16 +3730,16 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="53">
         <v>45019</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="53">
         <v>45020</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="60">
         <v>860157040208073</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -3586,35 +3749,35 @@
         <v>62</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57" t="s">
+      <c r="N7" s="55"/>
+      <c r="O7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="59" t="s">
+      <c r="P7" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="57" t="s">
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="61"/>
+      <c r="S7" s="59"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3624,31 +3787,47 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="53">
         <v>45028</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="60">
         <v>868183033848073</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="L8" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
       <c r="U8" s="3" t="s">
@@ -3664,31 +3843,49 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="53">
         <v>45028</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="60">
         <v>868183034640107</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
       <c r="U9" s="3" t="s">
@@ -3704,31 +3901,51 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="53">
         <v>45028</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="60">
         <v>868183035892731</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="1"/>
+      <c r="H10" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="L10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
       <c r="U10" s="3" t="s">
@@ -3741,31 +3958,51 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="53">
         <v>45028</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="60">
         <v>868183035941900</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="L11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
       <c r="U11" s="3" t="s">
@@ -3781,13 +4018,13 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="43"/>
       <c r="J12" s="1"/>
       <c r="K12" s="33"/>
@@ -3813,13 +4050,13 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="43"/>
       <c r="J13" s="1"/>
       <c r="K13" s="33"/>
@@ -5049,41 +5286,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -5116,57 +5353,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5191,22 +5428,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5469,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5263,7 +5500,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5292,7 +5529,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5321,7 +5558,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5350,7 +5587,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5379,7 +5616,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5408,7 +5645,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5439,7 +5676,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5468,7 +5705,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5497,7 +5734,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5526,7 +5763,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
@@ -719,6 +719,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,30 +767,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,12 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1115,41 +1115,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1182,57 +1182,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="70" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1263,16 +1263,16 @@
       <c r="K5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="S6" s="59"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="S7" s="59"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="S8" s="59"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="S9" s="59"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="G10" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="64"/>
       <c r="I10" s="54" t="s">
         <v>82</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="S10" s="59"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="G11" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="64" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="54" t="s">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="S11" s="59"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72" t="s">
+      <c r="U11" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V11" s="3" t="s">
@@ -1623,7 +1623,7 @@
       <c r="G12" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="64" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="54" t="s">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="S12" s="59"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="73"/>
+      <c r="U12" s="67"/>
       <c r="V12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="R13" s="58"/>
       <c r="S13" s="59"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="R14" s="58"/>
       <c r="S14" s="59"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="R15" s="58"/>
       <c r="S15" s="59"/>
       <c r="T15" s="61"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="G16" s="46"/>
       <c r="H16" s="55"/>
       <c r="I16" s="54"/>
-      <c r="J16" s="82"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="56"/>
       <c r="L16" s="56"/>
       <c r="M16" s="57"/>
@@ -3444,13 +3444,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U11:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3462,6 +3455,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3472,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E11"/>
+    <sheetView showZeros="0" topLeftCell="L4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3505,41 +3505,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3572,57 +3572,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="78" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3653,16 +3653,16 @@
       <c r="K5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="S6" s="59"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="S7" s="59"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5226,6 +5226,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5237,12 +5243,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5286,41 +5286,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -5353,57 +5353,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5428,22 +5428,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5469,7 +5469,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5500,7 +5500,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5676,7 +5676,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6994,13 +6994,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7012,6 +7005,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="52" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -319,6 +319,54 @@
   </si>
   <si>
     <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>ID mới: 202304191615311</t>
+  </si>
+  <si>
+    <t>Gán lại ID, làm mới, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>ID mới: 202304200842472</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, gán lại ID, làm mới, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>ID mới: 202304200853376</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector, gán lại ID, làm mới, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>VI.2.00.---18.190731</t>
+  </si>
+  <si>
+    <t>ID mới: 202304201137428</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, gán ID mới, nâng cấp FW, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>ID cũ: 202205101524396. ID mới: 202304201436396</t>
+  </si>
+  <si>
+    <t>Gán lại ID, nâng cấp FW, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>ID mới: 202304201503105</t>
+  </si>
+  <si>
+    <t>ID mới: 202304201541163</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, gán lại ID, test lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1330,9 @@
       <c r="B6" s="53">
         <v>45019</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="53">
+        <v>45034</v>
+      </c>
       <c r="D6" s="46" t="s">
         <v>65</v>
       </c>
@@ -1337,7 +1387,9 @@
       <c r="B7" s="53">
         <v>45028</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="53">
+        <v>45034</v>
+      </c>
       <c r="D7" s="46" t="s">
         <v>65</v>
       </c>
@@ -1392,7 +1444,9 @@
       <c r="B8" s="53">
         <v>45028</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="53">
+        <v>45034</v>
+      </c>
       <c r="D8" s="46" t="s">
         <v>65</v>
       </c>
@@ -1445,7 +1499,9 @@
       <c r="B9" s="53">
         <v>45028</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="53">
+        <v>45034</v>
+      </c>
       <c r="D9" s="46" t="s">
         <v>65</v>
       </c>
@@ -1500,7 +1556,9 @@
       <c r="B10" s="53">
         <v>45028</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="53">
+        <v>45034</v>
+      </c>
       <c r="D10" s="46" t="s">
         <v>65</v>
       </c>
@@ -1555,7 +1613,9 @@
       <c r="B11" s="53">
         <v>45028</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="53">
+        <v>45034</v>
+      </c>
       <c r="D11" s="46" t="s">
         <v>65</v>
       </c>
@@ -1612,7 +1672,9 @@
       <c r="B12" s="53">
         <v>45028</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="53">
+        <v>45034</v>
+      </c>
       <c r="D12" s="46" t="s">
         <v>65</v>
       </c>
@@ -1666,23 +1728,51 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="60"/>
+      <c r="B13" s="53">
+        <v>45035</v>
+      </c>
+      <c r="C13" s="53">
+        <v>45037</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="60">
+        <v>868926033939163</v>
+      </c>
       <c r="F13" s="63"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="G13" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>77</v>
+      </c>
       <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
+      <c r="M13" s="57" t="s">
+        <v>110</v>
+      </c>
       <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="58"/>
+      <c r="O13" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="59"/>
       <c r="T13" s="61"/>
       <c r="U13" s="67"/>
@@ -1695,23 +1785,49 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="60"/>
+      <c r="B14" s="53">
+        <v>45035</v>
+      </c>
+      <c r="C14" s="53">
+        <v>45037</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="60">
+        <v>866050031762105</v>
+      </c>
       <c r="F14" s="63"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="G14" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56" t="s">
+        <v>88</v>
+      </c>
       <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
+      <c r="M14" s="57" t="s">
+        <v>107</v>
+      </c>
       <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="58"/>
+      <c r="O14" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="58" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="59"/>
       <c r="T14" s="61"/>
       <c r="U14" s="67"/>
@@ -1724,23 +1840,49 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="60"/>
+      <c r="B15" s="53">
+        <v>45035</v>
+      </c>
+      <c r="C15" s="53">
+        <v>45037</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="60">
+        <v>866192037796396</v>
+      </c>
       <c r="F15" s="63"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>67</v>
+      </c>
       <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="K15" s="56" t="s">
+        <v>88</v>
+      </c>
       <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="57" t="s">
+        <v>107</v>
+      </c>
       <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="58"/>
+      <c r="O15" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="58" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="59"/>
       <c r="T15" s="61"/>
       <c r="U15" s="68"/>
@@ -1753,23 +1895,53 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="60"/>
+      <c r="B16" s="53">
+        <v>45035</v>
+      </c>
+      <c r="C16" s="53">
+        <v>45037</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="60">
+        <v>868345035600428</v>
+      </c>
       <c r="F16" s="63"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
+      <c r="G16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="58"/>
+      <c r="O16" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="S16" s="59"/>
       <c r="T16" s="61"/>
       <c r="U16" s="61"/>
@@ -3472,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3790,7 +3962,9 @@
       <c r="B8" s="53">
         <v>45028</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="53">
+        <v>45034</v>
+      </c>
       <c r="D8" s="46" t="s">
         <v>44</v>
       </c>
@@ -3808,14 +3982,14 @@
       <c r="J8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="57" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="55" t="s">
         <v>72</v>
       </c>
@@ -3825,7 +3999,7 @@
       <c r="Q8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="58" t="s">
         <v>25</v>
       </c>
       <c r="S8" s="3"/>
@@ -3846,7 +4020,9 @@
       <c r="B9" s="53">
         <v>45028</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="53">
+        <v>45034</v>
+      </c>
       <c r="D9" s="46" t="s">
         <v>44</v>
       </c>
@@ -3858,32 +4034,32 @@
         <v>62</v>
       </c>
       <c r="H9" s="55"/>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="54" t="s">
         <v>82</v>
       </c>
       <c r="J9" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="57" t="s">
         <v>69</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="55"/>
+      <c r="O9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="58" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="3"/>
@@ -3904,7 +4080,9 @@
       <c r="B10" s="53">
         <v>45028</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="53">
+        <v>45034</v>
+      </c>
       <c r="D10" s="46" t="s">
         <v>44</v>
       </c>
@@ -3920,30 +4098,30 @@
       <c r="H10" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="55"/>
+      <c r="O10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="58" t="s">
         <v>25</v>
       </c>
       <c r="S10" s="3"/>
@@ -3961,7 +4139,9 @@
       <c r="B11" s="53">
         <v>45028</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="53">
+        <v>45034</v>
+      </c>
       <c r="D11" s="46" t="s">
         <v>44</v>
       </c>
@@ -3977,30 +4157,30 @@
       <c r="H11" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="55"/>
+      <c r="O11" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="58" t="s">
         <v>25</v>
       </c>
       <c r="S11" s="3"/>
@@ -4018,23 +4198,51 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="60"/>
+      <c r="B12" s="53">
+        <v>45035</v>
+      </c>
+      <c r="C12" s="53">
+        <v>45037</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="60">
+        <v>868183034679311</v>
+      </c>
       <c r="F12" s="63"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="G12" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
       <c r="U12" s="3" t="s">
@@ -4050,23 +4258,51 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="60"/>
+      <c r="B13" s="53">
+        <v>45035</v>
+      </c>
+      <c r="C13" s="53">
+        <v>45037</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="60">
+        <v>860157040205376</v>
+      </c>
       <c r="F13" s="63"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="G13" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
       <c r="U13" s="3" t="s">
@@ -4082,23 +4318,53 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="B14" s="53">
+        <v>45035</v>
+      </c>
+      <c r="C14" s="53">
+        <v>45037</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="60">
+        <v>868183035855472</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="58" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
       <c r="U14" s="3" t="s">
@@ -4512,10 +4778,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="2"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="28" t="e">
-        <f>COUNTIF(#REF!,"*GSM*")</f>
-        <v>#REF!</v>
-      </c>
+      <c r="T27" s="28"/>
       <c r="U27" s="3" t="s">
         <v>57</v>
       </c>
